--- a/testcode/p2ptest.xlsx
+++ b/testcode/p2ptest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\工作空间\GLEX-Alltoall-paper\testcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582E5CBE-DC5C-4FD9-9A16-6BC58C13EC1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5784E7-10B8-4811-ADB8-36585F0C546A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="3135" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="12196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -392,19 +392,19 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="B2:E2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.25" customWidth="1"/>
-    <col min="2" max="2" width="13.875" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="15.75" customWidth="1"/>
-    <col min="5" max="5" width="19.375" customWidth="1"/>
+    <col min="1" max="1" width="15.265625" customWidth="1"/>
+    <col min="2" max="2" width="13.86328125" customWidth="1"/>
+    <col min="3" max="3" width="14.46484375" customWidth="1"/>
+    <col min="4" max="4" width="15.73046875" customWidth="1"/>
+    <col min="5" max="5" width="19.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -424,22 +424,34 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>1366.3</v>
+      </c>
+      <c r="C2">
+        <v>1364.8</v>
+      </c>
+      <c r="D2">
+        <v>1505.5</v>
+      </c>
+      <c r="E2">
+        <v>1507.2</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>3</v>
       </c>

--- a/testcode/p2ptest.xlsx
+++ b/testcode/p2ptest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\工作空间\GLEX-Alltoall-paper\testcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582E5CBE-DC5C-4FD9-9A16-6BC58C13EC1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7EB6AC-C7D0-4469-AA9D-0488D9715315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3060" yWindow="3135" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -392,7 +392,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="B2:E2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -428,6 +428,18 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>1366</v>
+      </c>
+      <c r="C2">
+        <v>1368</v>
+      </c>
+      <c r="D2">
+        <v>1181</v>
+      </c>
+      <c r="E2">
+        <v>1336</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
